--- a/data/trans_bre/IP43-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 10,21</t>
+          <t>-27,34; 7,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 18,2</t>
+          <t>-24,18; 17,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-96,93; 130,87</t>
+          <t>-100,0; 123,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,92; 193,34</t>
+          <t>-80,59; 159,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 10,92</t>
+          <t>-9,55; 10,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 9,0</t>
+          <t>-6,22; 8,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 39,51</t>
+          <t>-26,0; 40,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 85,22</t>
+          <t>-34,54; 70,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 5,15</t>
+          <t>-9,52; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 4,86</t>
+          <t>-6,02; 5,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 17,69</t>
+          <t>-25,9; 16,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 33,71</t>
+          <t>-29,26; 37,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 6,61</t>
+          <t>-6,29; 6,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,22</t>
+          <t>-2,52; 5,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 48,79</t>
+          <t>-33,26; 48,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 167,65</t>
+          <t>-35,9; 140,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,71</t>
+          <t>-3,7; 7,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,7</t>
+          <t>-1,68; 7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 77,36</t>
+          <t>-23,7; 80,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 179,4</t>
+          <t>-22,62; 154,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,34</t>
+          <t>-4,01; 3,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,45</t>
+          <t>-2,19; 3,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 15,29</t>
+          <t>-15,74; 15,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 33,63</t>
+          <t>-16,11; 36,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_bre/IP43-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP43-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-45,03%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 7,91</t>
+          <t>-10,28; 7,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 17,66</t>
+          <t>-6,81; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 123,36</t>
+          <t>-29,74; 30,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 159,57</t>
+          <t>-35,47; 61,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 10,76</t>
+          <t>-9,32; 6,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 8,13</t>
+          <t>-5,8; 5,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 40,74</t>
+          <t>-24,91; 21,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 70,96</t>
+          <t>-29,38; 38,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,0</t>
+          <t>-6,27; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,57</t>
+          <t>-2,82; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 16,77</t>
+          <t>-32,98; 48,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 37,81</t>
+          <t>-38,8; 158,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 6,38</t>
+          <t>-4,08; 7,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,12</t>
+          <t>-1,15; 7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 48,11</t>
+          <t>-26,42; 83,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 140,8</t>
+          <t>-15,09; 171,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 7,72</t>
+          <t>-4,37; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,01</t>
+          <t>-1,78; 3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 80,52</t>
+          <t>-17,0; 13,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 154,11</t>
+          <t>-14,11; 35,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -992,94 +992,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 3,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 3,73</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 15,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 36,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
